--- a/ResultatsModeles.xlsx
+++ b/ResultatsModeles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\repo\projetPSID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBD0037-1C50-462A-BD02-AA7F36A28335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49020221-475C-4A1D-9A2C-2A3938BEB2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,6 +309,30 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -370,30 +394,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -408,32 +408,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8088BE4D-6042-433D-99BD-0EF6D62397C0}" name="Tableau1" displayName="Tableau1" ref="A2:G7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8088BE4D-6042-433D-99BD-0EF6D62397C0}" name="Tableau1" displayName="Tableau1" ref="A2:G7" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:G7" xr:uid="{8088BE4D-6042-433D-99BD-0EF6D62397C0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6437EB7-E4C6-4E07-A9B8-93241347ED5A}" name="Modèle" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{EEDA104B-8920-41E5-950F-901BA79F3C10}" name="MAE" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{E876CF8B-F404-4D5E-99EC-A7D51F18ED28}" name="RMSE" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{523BD216-F9D8-403A-A884-98418A4A4A2C}" name="R²" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{877DFE8E-60AA-45DD-9EC2-54D6F9420023}" name="Bias" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{74D3CCD3-25AA-4D8A-B549-B45C8E1EF421}" name="Variance" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{6326D1E8-7686-48D2-99F3-5F63D39BB052}" name="📊 Résumé" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{D6437EB7-E4C6-4E07-A9B8-93241347ED5A}" name="Modèle" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{EEDA104B-8920-41E5-950F-901BA79F3C10}" name="MAE" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{E876CF8B-F404-4D5E-99EC-A7D51F18ED28}" name="RMSE" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{523BD216-F9D8-403A-A884-98418A4A4A2C}" name="R²" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{877DFE8E-60AA-45DD-9EC2-54D6F9420023}" name="Bias" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{74D3CCD3-25AA-4D8A-B549-B45C8E1EF421}" name="Variance" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{6326D1E8-7686-48D2-99F3-5F63D39BB052}" name="📊 Résumé" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4D195A7-7D06-4AC2-88F6-ECEE9BB05D3B}" name="Tableau3" displayName="Tableau3" ref="I2:O7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4D195A7-7D06-4AC2-88F6-ECEE9BB05D3B}" name="Tableau3" displayName="Tableau3" ref="I2:O7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="I2:O7" xr:uid="{D4D195A7-7D06-4AC2-88F6-ECEE9BB05D3B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{468A4460-6015-4A23-9B72-FBC765390A7A}" name="Modèle" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{D9EE2346-B4FC-4AB3-91B6-149102393BDC}" name="MAE" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{334DC898-6472-4595-B36F-4AB0D595D04F}" name="RMSE" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2596F8EA-AB54-4DED-A41E-0549B373EED1}" name="R²" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A9D6066A-E9AE-4C33-B156-08A635156000}" name="Bias" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{290257BC-8BDD-40BE-927F-1A9E6E0241F1}" name="Variance" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{A9F38C8A-1F2E-4B09-A06E-FF36DC657A4F}" name="📊 Résumé" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{468A4460-6015-4A23-9B72-FBC765390A7A}" name="Modèle" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D9EE2346-B4FC-4AB3-91B6-149102393BDC}" name="MAE" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{334DC898-6472-4595-B36F-4AB0D595D04F}" name="RMSE" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2596F8EA-AB54-4DED-A41E-0549B373EED1}" name="R²" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A9D6066A-E9AE-4C33-B156-08A635156000}" name="Bias" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{290257BC-8BDD-40BE-927F-1A9E6E0241F1}" name="Variance" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A9F38C8A-1F2E-4B09-A06E-FF36DC657A4F}" name="📊 Résumé" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -730,7 +730,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/ResultatsModeles.xlsx
+++ b/ResultatsModeles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\repo\projetPSID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D50D2D0-DD78-4AD1-A2B4-B54DEB518CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57D771F-4031-45AD-A2F8-4A7E976652C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="486">
   <si>
     <t>HOME</t>
   </si>
@@ -96,9 +96,6 @@
     <t>1.3769</t>
   </si>
   <si>
-    <t>-0.0985</t>
-  </si>
-  <si>
     <t>1.8388</t>
   </si>
   <si>
@@ -117,36 +114,24 @@
     <t>1.3729</t>
   </si>
   <si>
-    <t>-0.1049</t>
-  </si>
-  <si>
     <t>1.8900</t>
   </si>
   <si>
     <t>Lasso Regression</t>
   </si>
   <si>
-    <t>-0.0006</t>
-  </si>
-  <si>
     <t>1.7250</t>
   </si>
   <si>
     <t>1.3097</t>
   </si>
   <si>
-    <t>-0.0008</t>
-  </si>
-  <si>
     <t>Linear Regression</t>
   </si>
   <si>
     <t>MLP (sklearn)</t>
   </si>
   <si>
-    <t>-0.0022</t>
-  </si>
-  <si>
     <t>1.0614</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>1.3188</t>
   </si>
   <si>
-    <t>-0.0142</t>
-  </si>
-  <si>
     <t>Random Forest</t>
   </si>
   <si>
@@ -183,9 +165,6 @@
     <t>Ridge Regression</t>
   </si>
   <si>
-    <t>-0.0010</t>
-  </si>
-  <si>
     <t>0.8876</t>
   </si>
   <si>
@@ -204,9 +183,6 @@
     <t>Meilleur</t>
   </si>
   <si>
-    <t>-0.1921</t>
-  </si>
-  <si>
     <t>0.8981</t>
   </si>
   <si>
@@ -216,15 +192,9 @@
     <t>1.1829</t>
   </si>
   <si>
-    <t>-0.0493</t>
-  </si>
-  <si>
     <t>1.3646</t>
   </si>
   <si>
-    <t>-0.0017</t>
-  </si>
-  <si>
     <t>0.9412</t>
   </si>
   <si>
@@ -234,9 +204,6 @@
     <t>1.2074</t>
   </si>
   <si>
-    <t>-0.0959</t>
-  </si>
-  <si>
     <t>1.4620</t>
   </si>
   <si>
@@ -285,9 +252,6 @@
     <t>1.1566</t>
   </si>
   <si>
-    <t>-0.0057</t>
-  </si>
-  <si>
     <t>1.3375</t>
   </si>
   <si>
@@ -303,9 +267,6 @@
     <t>1.1562</t>
   </si>
   <si>
-    <t>-0.0051</t>
-  </si>
-  <si>
     <t>1.3400</t>
   </si>
   <si>
@@ -324,9 +285,6 @@
     <t>MLP</t>
   </si>
   <si>
-    <t>-0.0007</t>
-  </si>
-  <si>
     <t>1.0025</t>
   </si>
   <si>
@@ -369,9 +327,6 @@
     <t>1.3292</t>
   </si>
   <si>
-    <t>-0.0345</t>
-  </si>
-  <si>
     <t>1.7723</t>
   </si>
   <si>
@@ -384,9 +339,6 @@
     <t>1.3109</t>
   </si>
   <si>
-    <t>-0.0027</t>
-  </si>
-  <si>
     <t>1.7281</t>
   </si>
   <si>
@@ -399,9 +351,6 @@
     <t>1.3105</t>
   </si>
   <si>
-    <t>-0.0021</t>
-  </si>
-  <si>
     <t>0.0507</t>
   </si>
   <si>
@@ -414,9 +363,6 @@
     <t>1.3211</t>
   </si>
   <si>
-    <t>-0.0191</t>
-  </si>
-  <si>
     <t>1.7519</t>
   </si>
   <si>
@@ -438,9 +384,6 @@
     <t>1.6155</t>
   </si>
   <si>
-    <t>-0.0031</t>
-  </si>
-  <si>
     <t>0.8754</t>
   </si>
   <si>
@@ -468,9 +411,6 @@
     <t>1.3488</t>
   </si>
   <si>
-    <t>-0.3856</t>
-  </si>
-  <si>
     <t>1.7934</t>
   </si>
   <si>
@@ -486,9 +426,6 @@
     <t>1.1925</t>
   </si>
   <si>
-    <t>-0.0708</t>
-  </si>
-  <si>
     <t>1.4248</t>
   </si>
   <si>
@@ -528,9 +465,6 @@
     <t>1.3340</t>
   </si>
   <si>
-    <t>-0.0425</t>
-  </si>
-  <si>
     <t>0.8857</t>
   </si>
   <si>
@@ -540,9 +474,6 @@
     <t>1.1593</t>
   </si>
   <si>
-    <t>-0.0104</t>
-  </si>
-  <si>
     <t>1.3455</t>
   </si>
   <si>
@@ -579,21 +510,6 @@
     <t>0.113</t>
   </si>
   <si>
-    <t>0.194</t>
-  </si>
-  <si>
-    <t>1.008</t>
-  </si>
-  <si>
-    <t>1.569</t>
-  </si>
-  <si>
-    <t>1.252</t>
-  </si>
-  <si>
-    <t>0.095</t>
-  </si>
-  <si>
     <t>1.531</t>
   </si>
   <si>
@@ -612,9 +528,6 @@
     <t>0.037</t>
   </si>
   <si>
-    <t>-0.0012</t>
-  </si>
-  <si>
     <t>0.971</t>
   </si>
   <si>
@@ -630,9 +543,6 @@
     <t>LinearReg</t>
   </si>
   <si>
-    <t>-0.0015</t>
-  </si>
-  <si>
     <t>1.506</t>
   </si>
   <si>
@@ -642,9 +552,6 @@
     <t>0.129</t>
   </si>
   <si>
-    <t>-0.0636</t>
-  </si>
-  <si>
     <t>0.972</t>
   </si>
   <si>
@@ -687,24 +594,9 @@
     <t>0.084</t>
   </si>
   <si>
-    <t>-0.071</t>
-  </si>
-  <si>
-    <t>0.885</t>
-  </si>
-  <si>
     <t>1.297</t>
   </si>
   <si>
-    <t>1.139</t>
-  </si>
-  <si>
-    <t>0.022</t>
-  </si>
-  <si>
-    <t>1.292</t>
-  </si>
-  <si>
     <t>0.0197</t>
   </si>
   <si>
@@ -717,9 +609,6 @@
     <t>1.172</t>
   </si>
   <si>
-    <t>-0.038</t>
-  </si>
-  <si>
     <t>1.376</t>
   </si>
   <si>
@@ -810,9 +699,6 @@
     <t>0.025</t>
   </si>
   <si>
-    <t>0.00003</t>
-  </si>
-  <si>
     <t>0.958</t>
   </si>
   <si>
@@ -825,9 +711,6 @@
     <t>0.134</t>
   </si>
   <si>
-    <t>-0.0235</t>
-  </si>
-  <si>
     <t>0.974</t>
   </si>
   <si>
@@ -864,12 +747,6 @@
     <t>0.101</t>
   </si>
   <si>
-    <t>1.278</t>
-  </si>
-  <si>
-    <t>1.268</t>
-  </si>
-  <si>
     <t>0.0050</t>
   </si>
   <si>
@@ -882,9 +759,6 @@
     <t>1.164</t>
   </si>
   <si>
-    <t>-0.025</t>
-  </si>
-  <si>
     <t>~0</t>
   </si>
   <si>
@@ -945,9 +819,6 @@
     <t>Bon</t>
   </si>
   <si>
-    <t>-0.01026</t>
-  </si>
-  <si>
     <t>1.0263</t>
   </si>
   <si>
@@ -963,18 +834,12 @@
     <t>1.6555</t>
   </si>
   <si>
-    <t>-0.00005</t>
-  </si>
-  <si>
     <t>1.0409</t>
   </si>
   <si>
     <t>1.7381</t>
   </si>
   <si>
-    <t>-0.0220</t>
-  </si>
-  <si>
     <t>1.3182</t>
   </si>
   <si>
@@ -1050,9 +915,6 @@
     <t xml:space="preserve"> Meilleur</t>
   </si>
   <si>
-    <t>-0.0803</t>
-  </si>
-  <si>
     <t>0.8765</t>
   </si>
   <si>
@@ -1080,9 +942,6 @@
     <t>1.4004</t>
   </si>
   <si>
-    <t>-0.0590</t>
-  </si>
-  <si>
     <t>1.1833</t>
   </si>
   <si>
@@ -1098,9 +957,6 @@
     <t>1.1405</t>
   </si>
   <si>
-    <t>-0.0024</t>
-  </si>
-  <si>
     <t>1.2953</t>
   </si>
   <si>
@@ -1146,18 +1002,12 @@
     <t>Meilleur global</t>
   </si>
   <si>
-    <t>-0.0408</t>
-  </si>
-  <si>
     <t>1.037</t>
   </si>
   <si>
     <t>1.719</t>
   </si>
   <si>
-    <t>-0.004</t>
-  </si>
-  <si>
     <t>1.311</t>
   </si>
   <si>
@@ -1173,18 +1023,12 @@
     <t>1.786</t>
   </si>
   <si>
-    <t>-0.044</t>
-  </si>
-  <si>
     <t>1.336</t>
   </si>
   <si>
     <t>1.785</t>
   </si>
   <si>
-    <t>-0.00006</t>
-  </si>
-  <si>
     <t>1.041</t>
   </si>
   <si>
@@ -1194,9 +1038,6 @@
     <t>0.016</t>
   </si>
   <si>
-    <t>-0.0243</t>
-  </si>
-  <si>
     <t>1.026</t>
   </si>
   <si>
@@ -1248,9 +1089,6 @@
     <t>1.391</t>
   </si>
   <si>
-    <t>-0.032</t>
-  </si>
-  <si>
     <t>1.179</t>
   </si>
   <si>
@@ -1263,15 +1101,9 @@
     <t>1.434</t>
   </si>
   <si>
-    <t>-0.065</t>
-  </si>
-  <si>
     <t>1.197</t>
   </si>
   <si>
-    <t>-0.00001</t>
-  </si>
-  <si>
     <t>0.900</t>
   </si>
   <si>
@@ -1284,9 +1116,6 @@
     <t>1.152</t>
   </si>
   <si>
-    <t>-0.0038</t>
-  </si>
-  <si>
     <t>0.899</t>
   </si>
   <si>
@@ -1317,217 +1146,340 @@
     <t>Réseaux de neurones</t>
   </si>
   <si>
-    <t>-0.0567</t>
-  </si>
-  <si>
-    <t>0.964</t>
-  </si>
-  <si>
-    <t>1.505</t>
-  </si>
-  <si>
-    <t>1.227</t>
-  </si>
-  <si>
-    <t>0.115</t>
-  </si>
-  <si>
-    <t>1.502</t>
-  </si>
-  <si>
-    <t>-0.0130</t>
-  </si>
-  <si>
-    <t>1.107</t>
-  </si>
-  <si>
-    <t>0.072</t>
-  </si>
-  <si>
     <t>0.0012</t>
   </si>
   <si>
-    <t>0.988</t>
-  </si>
-  <si>
     <t>1.553</t>
   </si>
   <si>
-    <t>0.078</t>
-  </si>
-  <si>
-    <t>0.0459</t>
-  </si>
-  <si>
-    <t>1.043</t>
-  </si>
-  <si>
-    <t>1.750</t>
-  </si>
-  <si>
-    <t>1.321</t>
-  </si>
-  <si>
-    <t>-0.036</t>
-  </si>
-  <si>
-    <t>1.748</t>
-  </si>
-  <si>
-    <t>-0.0211</t>
-  </si>
-  <si>
-    <t>1.759</t>
-  </si>
-  <si>
-    <t>1.323</t>
-  </si>
-  <si>
-    <t>-0.047</t>
-  </si>
-  <si>
-    <t>-0.0014</t>
-  </si>
-  <si>
-    <t>0.969</t>
-  </si>
-  <si>
-    <t>1.532</t>
-  </si>
-  <si>
-    <t>1.235</t>
-  </si>
-  <si>
-    <t>0.091</t>
-  </si>
-  <si>
-    <t>-0.0011</t>
-  </si>
-  <si>
-    <t>1.538</t>
-  </si>
-  <si>
-    <t>0.087</t>
-  </si>
-  <si>
-    <t>-0.0406</t>
-  </si>
-  <si>
-    <t>0.986</t>
-  </si>
-  <si>
-    <t>1.590</t>
-  </si>
-  <si>
-    <t>1.258</t>
-  </si>
-  <si>
-    <t>0.057</t>
-  </si>
-  <si>
-    <t>1.589</t>
-  </si>
-  <si>
-    <t>0.997</t>
-  </si>
-  <si>
-    <t>1.600</t>
-  </si>
-  <si>
-    <t>1.263</t>
-  </si>
-  <si>
-    <t>0.049</t>
-  </si>
-  <si>
-    <t>0.0035</t>
-  </si>
-  <si>
-    <t>0.875</t>
-  </si>
-  <si>
-    <t>0.058</t>
-  </si>
-  <si>
-    <t>0.6811</t>
-  </si>
-  <si>
-    <t>1.251</t>
-  </si>
-  <si>
-    <t>2.293</t>
-  </si>
-  <si>
     <t>1.456</t>
   </si>
   <si>
-    <t>-0.782</t>
-  </si>
-  <si>
-    <t>1.829</t>
-  </si>
-  <si>
     <t>0.0185</t>
   </si>
   <si>
-    <t>0.896</t>
-  </si>
-  <si>
-    <t>1.128</t>
-  </si>
-  <si>
-    <t>0.003</t>
-  </si>
-  <si>
-    <t>-0.0001</t>
-  </si>
-  <si>
-    <t>0.871</t>
-  </si>
-  <si>
-    <t>1.175</t>
-  </si>
-  <si>
-    <t>1.081</t>
-  </si>
-  <si>
     <t>0.086</t>
   </si>
   <si>
-    <t>0.873</t>
-  </si>
-  <si>
-    <t>1.181</t>
-  </si>
-  <si>
-    <t>1.084</t>
-  </si>
-  <si>
-    <t>0.081</t>
-  </si>
-  <si>
-    <t>1.180</t>
-  </si>
-  <si>
-    <t>-0.0162</t>
-  </si>
-  <si>
-    <t>1.124</t>
-  </si>
-  <si>
-    <t>0.013</t>
-  </si>
-  <si>
-    <t>0.0241</t>
-  </si>
-  <si>
-    <t>0.879</t>
-  </si>
-  <si>
-    <t>1.215</t>
-  </si>
-  <si>
-    <t>1.182</t>
+    <t>0.0017</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>1.459</t>
+  </si>
+  <si>
+    <t>1.207</t>
+  </si>
+  <si>
+    <t>0.146</t>
+  </si>
+  <si>
+    <t>0.0657</t>
+  </si>
+  <si>
+    <t>1.024</t>
+  </si>
+  <si>
+    <t>1.664</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>1.659</t>
+  </si>
+  <si>
+    <t>0.0014</t>
+  </si>
+  <si>
+    <t>1.007</t>
+  </si>
+  <si>
+    <t>1.632</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>1.206</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>1.515</t>
+  </si>
+  <si>
+    <t>1.230</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>1.457</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>1.214</t>
+  </si>
+  <si>
+    <t>1.101</t>
+  </si>
+  <si>
+    <t>0.097</t>
+  </si>
+  <si>
+    <t>0.3047</t>
+  </si>
+  <si>
+    <t>1.006</t>
+  </si>
+  <si>
+    <t>1.520</t>
+  </si>
+  <si>
+    <t>1.427</t>
+  </si>
+  <si>
+    <t>0.0195</t>
+  </si>
+  <si>
+    <t>0.912</t>
+  </si>
+  <si>
+    <t>1.344</t>
+  </si>
+  <si>
+    <t>1.158</t>
+  </si>
+  <si>
+    <t>1.343</t>
+  </si>
+  <si>
+    <t>0.858</t>
+  </si>
+  <si>
+    <t>1.196</t>
+  </si>
+  <si>
+    <t>1.093</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.110</t>
+  </si>
+  <si>
+    <t>0.0998</t>
+  </si>
+  <si>
+    <t>0.893</t>
+  </si>
+  <si>
+    <t>1.259</t>
+  </si>
+  <si>
+    <t>1.121</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>1.249</t>
+  </si>
+  <si>
+    <t>0.0065</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>1.218</t>
+  </si>
+  <si>
+    <t>1.103</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>1.195</t>
+  </si>
+  <si>
+    <t>0.0010</t>
+  </si>
+  <si>
+    <t>0.0425</t>
+  </si>
+  <si>
+    <t>0.0408</t>
+  </si>
+  <si>
+    <t>0.00006</t>
+  </si>
+  <si>
+    <t>0.0243</t>
+  </si>
+  <si>
+    <t>0.0006</t>
+  </si>
+  <si>
+    <t>0.0022</t>
+  </si>
+  <si>
+    <t>0.1921</t>
+  </si>
+  <si>
+    <t>0.00001</t>
+  </si>
+  <si>
+    <t>0.0038</t>
+  </si>
+  <si>
+    <t>0.01026</t>
+  </si>
+  <si>
+    <t>0.0803</t>
+  </si>
+  <si>
+    <t>0.0024</t>
+  </si>
+  <si>
+    <t>0.0013</t>
+  </si>
+  <si>
+    <t>0.0002</t>
+  </si>
+  <si>
+    <t>Biais</t>
+  </si>
+  <si>
+    <t>1.246</t>
+  </si>
+  <si>
+    <t>1.552</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0.855</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.0003</t>
+  </si>
+  <si>
+    <t>0.0590</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.0120</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.0049</t>
+  </si>
+  <si>
+    <t>0.0142</t>
+  </si>
+  <si>
+    <t>0.0149</t>
+  </si>
+  <si>
+    <t>0.0057</t>
+  </si>
+  <si>
+    <t>0.0051</t>
+  </si>
+  <si>
+    <t>0.0134</t>
+  </si>
+  <si>
+    <t>0.0027</t>
+  </si>
+  <si>
+    <t>0.0021</t>
+  </si>
+  <si>
+    <t>0.0191</t>
+  </si>
+  <si>
+    <t>0.0070</t>
+  </si>
+  <si>
+    <t>1.016</t>
+  </si>
+  <si>
+    <t>1.653</t>
+  </si>
+  <si>
+    <t>1.285</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>1.652</t>
+  </si>
+  <si>
+    <t>-0.0862</t>
+  </si>
+  <si>
+    <t>0.944</t>
+  </si>
+  <si>
+    <t>1.446</t>
+  </si>
+  <si>
+    <t>1.201</t>
+  </si>
+  <si>
+    <t>1.438</t>
+  </si>
+  <si>
+    <t>0.0025</t>
+  </si>
+  <si>
+    <t>0.0015</t>
+  </si>
+  <si>
+    <t>0.0636</t>
+  </si>
+  <si>
+    <t>0.019</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1557,153 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="62">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1626,30 +1724,83 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1672,6 +1823,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1693,33 +1860,22 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1745,6 +1901,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1766,6 +1938,22 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1790,426 +1978,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2224,34 +1992,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2322A401-23AB-4F91-AD78-80377ECBF0C3}" name="Tableau9" displayName="Tableau9" ref="A3:H11" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2322A401-23AB-4F91-AD78-80377ECBF0C3}" name="Tableau9" displayName="Tableau9" ref="A3:H11" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A3:H11" xr:uid="{2322A401-23AB-4F91-AD78-80377ECBF0C3}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{53AEA210-7263-4870-ACC3-4BDCA05894C2}" name="Modèle" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{7C81FA95-FE8C-48FC-B17D-C5CF88DB818E}" name="Bias" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{14A4D057-517A-4F44-A046-5E5A84B66ACC}" name="MAE" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{39CBBEA8-0643-4179-965F-27EAF218AF06}" name="MSE" dataDxfId="96"/>
-    <tableColumn id="5" xr3:uid="{A6D6AFCF-1389-4AF1-8F11-1CCBDAD0F00F}" name="RMSE" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{B931AA32-130E-4BC5-AEC0-8BBAA0B45A70}" name="R²" dataDxfId="94"/>
-    <tableColumn id="7" xr3:uid="{87604A12-6E33-441A-A77E-9F12468A5BC4}" name="Variance" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{3FCFC921-3331-4DAB-9C0C-8DE0E5DDC941}" name="Résumé" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{53AEA210-7263-4870-ACC3-4BDCA05894C2}" name="Modèle" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{7C81FA95-FE8C-48FC-B17D-C5CF88DB818E}" name="Bias" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{14A4D057-517A-4F44-A046-5E5A84B66ACC}" name="MAE" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{39CBBEA8-0643-4179-965F-27EAF218AF06}" name="MSE" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{A6D6AFCF-1389-4AF1-8F11-1CCBDAD0F00F}" name="RMSE" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{B931AA32-130E-4BC5-AEC0-8BBAA0B45A70}" name="R²" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{87604A12-6E33-441A-A77E-9F12468A5BC4}" name="Variance" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{3FCFC921-3331-4DAB-9C0C-8DE0E5DDC941}" name="Résumé" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9FA2D997-0B51-4ED1-92C9-83A50A769792}" name="Tableau12" displayName="Tableau12" ref="J3:Q11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9FA2D997-0B51-4ED1-92C9-83A50A769792}" name="Tableau12" displayName="Tableau12" ref="J3:Q11" totalsRowShown="0">
   <autoFilter ref="J3:Q11" xr:uid="{9FA2D997-0B51-4ED1-92C9-83A50A769792}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2ED76361-17F1-4EC9-B3FC-73A3B8853046}" name="Modèle" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{4B1E8CA9-C322-4BBE-BC1E-4BE1564902DB}" name="Bias" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{CC496F30-539A-4BD7-834C-E43980EC8B95}" name="MAE" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{53576664-B417-4D74-BFC5-42C7E99C5F92}" name="MSE" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{9B40208E-41AA-4902-AD93-AC3D082B6878}" name="RMSE" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{82515B3C-A0CD-4AF7-BF2D-9CCF21DC8892}" name="R²" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{9D812F20-BC53-4EF8-AD1B-AD97744C0D1B}" name="Variance" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{06116140-16EC-4D13-BFF0-1A2262137498}" name="Résumé" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{2ED76361-17F1-4EC9-B3FC-73A3B8853046}" name="Modèle"/>
+    <tableColumn id="2" xr3:uid="{4B1E8CA9-C322-4BBE-BC1E-4BE1564902DB}" name="Biais"/>
+    <tableColumn id="3" xr3:uid="{CC496F30-539A-4BD7-834C-E43980EC8B95}" name="MAE"/>
+    <tableColumn id="4" xr3:uid="{53576664-B417-4D74-BFC5-42C7E99C5F92}" name="MSE"/>
+    <tableColumn id="5" xr3:uid="{9B40208E-41AA-4902-AD93-AC3D082B6878}" name="RMSE"/>
+    <tableColumn id="6" xr3:uid="{82515B3C-A0CD-4AF7-BF2D-9CCF21DC8892}" name="R²"/>
+    <tableColumn id="7" xr3:uid="{9D812F20-BC53-4EF8-AD1B-AD97744C0D1B}" name="Variance"/>
+    <tableColumn id="8" xr3:uid="{06116140-16EC-4D13-BFF0-1A2262137498}" name="Résumé"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2292,102 +2060,102 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A939A76-A4DD-471F-98B1-5014B3316E2A}" name="Tableau6" displayName="Tableau6" ref="A25:H33" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A939A76-A4DD-471F-98B1-5014B3316E2A}" name="Tableau6" displayName="Tableau6" ref="A25:H33" totalsRowShown="0">
   <autoFilter ref="A25:H33" xr:uid="{5A939A76-A4DD-471F-98B1-5014B3316E2A}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{61557499-C986-4A5C-8EEC-985C47CC9E6A}" name="Modèle" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00228500-6EA5-45A0-AF46-A5B45CF44DC8}" name="Bias" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{97899700-ACAA-4767-9636-A9A4A9BBC734}" name="MAE" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{B1622051-77C6-49E8-B164-7B382132B2CF}" name="MSE" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{93B75BA5-F5CE-4CEC-971D-1AFEF23DF45C}" name="RMSE" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{A9B75946-5444-4B41-A8A3-998ADF8FF505}" name="R²" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{9363BCAD-B903-4982-884E-023D2BEC55FF}" name="Variance" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{FBE0B2A0-E3C6-48C4-9278-B42DFA587C2F}" name="Résumé" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{61557499-C986-4A5C-8EEC-985C47CC9E6A}" name="Modèle"/>
+    <tableColumn id="2" xr3:uid="{00228500-6EA5-45A0-AF46-A5B45CF44DC8}" name="Biais"/>
+    <tableColumn id="3" xr3:uid="{97899700-ACAA-4767-9636-A9A4A9BBC734}" name="MAE"/>
+    <tableColumn id="4" xr3:uid="{B1622051-77C6-49E8-B164-7B382132B2CF}" name="MSE"/>
+    <tableColumn id="5" xr3:uid="{93B75BA5-F5CE-4CEC-971D-1AFEF23DF45C}" name="RMSE"/>
+    <tableColumn id="6" xr3:uid="{A9B75946-5444-4B41-A8A3-998ADF8FF505}" name="R²"/>
+    <tableColumn id="7" xr3:uid="{9363BCAD-B903-4982-884E-023D2BEC55FF}" name="Variance"/>
+    <tableColumn id="8" xr3:uid="{FBE0B2A0-E3C6-48C4-9278-B42DFA587C2F}" name="Résumé"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EDBFDBCE-FD19-4DAE-814E-63D03EE10066}" name="Tableau13" displayName="Tableau13" ref="J25:Q33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EDBFDBCE-FD19-4DAE-814E-63D03EE10066}" name="Tableau13" displayName="Tableau13" ref="J25:Q33" totalsRowShown="0">
   <autoFilter ref="J25:Q33" xr:uid="{EDBFDBCE-FD19-4DAE-814E-63D03EE10066}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F5CA6F94-1624-4C5D-B0CD-3C195AC1EF9F}" name="Modèle" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{12A52A8D-5C09-4591-B384-68FA5C07838F}" name="Bias" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{E29E648C-0E71-4A66-AB12-18604F9DA7C3}" name="MAE" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{3575390D-81C5-4CD0-8603-6D9EC406451A}" name="MSE" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{8B9C5A7E-82EC-4A9B-A6ED-03FA90BD1FFE}" name="RMSE" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{71641799-173F-4DB5-A8B8-EB1D7D1425A1}" name="R²" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{929F1CBC-98F0-46D9-9C96-AEF34FC4AD8A}" name="Variance" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B75C1CE4-91C0-4B93-891B-5486A1494D11}" name="Résumé" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F5CA6F94-1624-4C5D-B0CD-3C195AC1EF9F}" name="Modèle"/>
+    <tableColumn id="2" xr3:uid="{12A52A8D-5C09-4591-B384-68FA5C07838F}" name="Biais"/>
+    <tableColumn id="3" xr3:uid="{E29E648C-0E71-4A66-AB12-18604F9DA7C3}" name="MAE"/>
+    <tableColumn id="4" xr3:uid="{3575390D-81C5-4CD0-8603-6D9EC406451A}" name="MSE"/>
+    <tableColumn id="5" xr3:uid="{8B9C5A7E-82EC-4A9B-A6ED-03FA90BD1FFE}" name="RMSE"/>
+    <tableColumn id="6" xr3:uid="{71641799-173F-4DB5-A8B8-EB1D7D1425A1}" name="R²"/>
+    <tableColumn id="7" xr3:uid="{929F1CBC-98F0-46D9-9C96-AEF34FC4AD8A}" name="Variance"/>
+    <tableColumn id="8" xr3:uid="{B75C1CE4-91C0-4B93-891B-5486A1494D11}" name="Résumé"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{36750D2C-3FFA-4FD7-AD48-21A2A8F8A2BF}" name="Tableau10" displayName="Tableau10" ref="J3:Q11" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{36750D2C-3FFA-4FD7-AD48-21A2A8F8A2BF}" name="Tableau10" displayName="Tableau10" ref="J3:Q11" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="J3:Q11" xr:uid="{36750D2C-3FFA-4FD7-AD48-21A2A8F8A2BF}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B6FF5A1D-D13C-457C-B88D-43711D0753D8}" name="Modèle" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{3AFA74A1-7D77-49D2-B33F-EAE2A1FBA631}" name="Bias" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{78E8E8B0-E9AC-4BF4-B982-3AAB9D494A50}" name="MAE" dataDxfId="87"/>
-    <tableColumn id="4" xr3:uid="{D4516FC2-FE20-497A-85B9-1E4B859211C1}" name="MSE" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{220F455B-58B0-4212-8FB3-B8BAD679D08C}" name="RMSE" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{CC0414BC-C452-4035-A1E4-6776FBE46DB5}" name="R²" dataDxfId="84"/>
-    <tableColumn id="7" xr3:uid="{26B39742-D168-48D1-9CDB-96C9596920B2}" name="Variance" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{10FC7D22-8367-4F14-B51F-56F59FEFF283}" name="Résumé" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{B6FF5A1D-D13C-457C-B88D-43711D0753D8}" name="Modèle" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{3AFA74A1-7D77-49D2-B33F-EAE2A1FBA631}" name="Bias" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{78E8E8B0-E9AC-4BF4-B982-3AAB9D494A50}" name="MAE" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{D4516FC2-FE20-497A-85B9-1E4B859211C1}" name="MSE" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{220F455B-58B0-4212-8FB3-B8BAD679D08C}" name="RMSE" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{CC0414BC-C452-4035-A1E4-6776FBE46DB5}" name="R²" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{26B39742-D168-48D1-9CDB-96C9596920B2}" name="Variance" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{10FC7D22-8367-4F14-B51F-56F59FEFF283}" name="Résumé" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA012953-C8D3-43EF-8362-2E45E9A9B40F}" name="Tableau1" displayName="Tableau1" ref="A3:H11" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA012953-C8D3-43EF-8362-2E45E9A9B40F}" name="Tableau1" displayName="Tableau1" ref="A3:H11" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A3:H11" xr:uid="{FA012953-C8D3-43EF-8362-2E45E9A9B40F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F0A7FC45-C1AE-4744-9C39-A99E77B47E9F}" name="Modèle" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{72504152-0979-4F6B-86C6-5A665CDB4EA0}" name="Bias" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{42784D39-8616-4498-9328-CABC1249E261}" name="MAE" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{50DAE57B-BDBA-4621-AA88-E6203A1F8475}" name="MSE" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{FD80288D-DDFF-4D89-A15C-50EE91855846}" name="RMSE" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{F16E7569-A546-4694-8CFB-733926531929}" name="R²" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{97E64590-E2DC-40CF-B7C6-878FADB36A26}" name="Variance" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{AD56AE36-740F-4E5F-B962-B93E80D465C1}" name="Résumé" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{F0A7FC45-C1AE-4744-9C39-A99E77B47E9F}" name="Modèle" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{72504152-0979-4F6B-86C6-5A665CDB4EA0}" name="Bias" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{42784D39-8616-4498-9328-CABC1249E261}" name="MAE" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{50DAE57B-BDBA-4621-AA88-E6203A1F8475}" name="MSE" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{FD80288D-DDFF-4D89-A15C-50EE91855846}" name="RMSE" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{F16E7569-A546-4694-8CFB-733926531929}" name="R²" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{97E64590-E2DC-40CF-B7C6-878FADB36A26}" name="Variance" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{AD56AE36-740F-4E5F-B962-B93E80D465C1}" name="Résumé" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04F44721-E14A-469C-A2E4-A8198709A67E}" name="Tableau2" displayName="Tableau2" ref="J3:Q11" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04F44721-E14A-469C-A2E4-A8198709A67E}" name="Tableau2" displayName="Tableau2" ref="J3:Q11" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="J3:Q11" xr:uid="{04F44721-E14A-469C-A2E4-A8198709A67E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7931C4FE-4A8B-4A89-8018-C9D6D4551B5B}" name="Modèle" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{210ECE70-58E1-442D-AFC5-F5B1C3AB08C3}" name="Bias" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{F84970B6-FE6B-46A1-91CD-11D17BCFE785}" name="MAE" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{E3341C1C-851B-4A34-8B79-FA89BD059FD2}" name="MSE" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{FF237414-0039-4D98-B9B7-DA3C3BDD67B5}" name="RMSE" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{0F36151C-D86E-4CCB-849F-78E6AF4EA074}" name="R²" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{C16F330F-0CA8-4235-B5A8-9C0047264D41}" name="Variance" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{E4FC6659-487D-4B25-86BE-F904870A9C6E}" name="Résumé" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{7931C4FE-4A8B-4A89-8018-C9D6D4551B5B}" name="Modèle" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{210ECE70-58E1-442D-AFC5-F5B1C3AB08C3}" name="Bias" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{F84970B6-FE6B-46A1-91CD-11D17BCFE785}" name="MAE" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{E3341C1C-851B-4A34-8B79-FA89BD059FD2}" name="MSE" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{FF237414-0039-4D98-B9B7-DA3C3BDD67B5}" name="RMSE" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{0F36151C-D86E-4CCB-849F-78E6AF4EA074}" name="R²" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{C16F330F-0CA8-4235-B5A8-9C0047264D41}" name="Variance" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{E4FC6659-487D-4B25-86BE-F904870A9C6E}" name="Résumé" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E2FAD81-0A49-4379-819A-EA6EBF3DC1B6}" name="Tableau5" displayName="Tableau5" ref="A25:H33" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0E2FAD81-0A49-4379-819A-EA6EBF3DC1B6}" name="Tableau5" displayName="Tableau5" ref="A25:H33" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A25:H33" xr:uid="{0E2FAD81-0A49-4379-819A-EA6EBF3DC1B6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D3B35ED4-1F45-4A7E-8F7C-1FAEB5F686DF}" name="Modèle" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{F1B49A3B-B3E2-4702-A96D-450609151D9E}" name="Bias" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{BF0E7057-98C3-4B94-941F-6A48DCDA1385}" name="MAE" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{185B4874-69BF-4E0A-9753-5ED30A357D53}" name="MSE" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{BFA11D37-6B8F-42C5-BF8F-50F64E1808E2}" name="R²" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{D3B35ED4-1F45-4A7E-8F7C-1FAEB5F686DF}" name="Modèle" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{F1B49A3B-B3E2-4702-A96D-450609151D9E}" name="Bias" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{BF0E7057-98C3-4B94-941F-6A48DCDA1385}" name="MAE" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{185B4874-69BF-4E0A-9753-5ED30A357D53}" name="MSE" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{EC092009-9B02-45EC-93AB-FF52E249E03F}" name="RMSE"/>
-    <tableColumn id="7" xr3:uid="{FF604A9D-D0DD-4C7E-A5F5-242E0F32EFC8}" name="Variance" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{F20D1ADA-6A7E-411C-8D35-B516BF229544}" name="Résumé" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{BFA11D37-6B8F-42C5-BF8F-50F64E1808E2}" name="R²" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{FF604A9D-D0DD-4C7E-A5F5-242E0F32EFC8}" name="Variance" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{F20D1ADA-6A7E-411C-8D35-B516BF229544}" name="Résumé" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2397,12 +2165,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{12D113FD-53F3-4D52-AE89-EAB033369ACC}" name="Tableau7" displayName="Tableau7" ref="J25:Q33" totalsRowShown="0">
   <autoFilter ref="J25:Q33" xr:uid="{12D113FD-53F3-4D52-AE89-EAB033369ACC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{39DBDBB1-8B0E-4337-935D-D3AAC5EF22ED}" name="Modèle" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{D4EDB917-EFC1-46B0-831E-4092CF08B54D}" name="Bias" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{39DBDBB1-8B0E-4337-935D-D3AAC5EF22ED}" name="Modèle" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D4EDB917-EFC1-46B0-831E-4092CF08B54D}" name="Bias" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{4B5641FE-F1B7-4698-879C-24B9C8C93F1F}" name="MAE"/>
     <tableColumn id="4" xr3:uid="{A927C2C6-0178-43AE-AE43-E6B0F9173062}" name="MSE"/>
+    <tableColumn id="6" xr3:uid="{0AE35EC5-7894-425A-BB49-B9BC47458B55}" name="RMSE"/>
     <tableColumn id="5" xr3:uid="{6B9530BE-1FF9-44ED-9CF2-3963ED61DE91}" name="R²"/>
-    <tableColumn id="6" xr3:uid="{0AE35EC5-7894-425A-BB49-B9BC47458B55}" name="RMSE"/>
     <tableColumn id="7" xr3:uid="{2FD394F9-D78B-4C11-9A81-91DF74AA3A99}" name="Variance"/>
     <tableColumn id="8" xr3:uid="{192F5A30-DB74-43B6-9B6D-36B977B2AEF5}" name="Résumé"/>
   </tableColumns>
@@ -2411,17 +2179,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AF68EC9D-AC20-4801-AD3A-F238BEB4F867}" name="Tableau8" displayName="Tableau8" ref="A14:H22" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AF68EC9D-AC20-4801-AD3A-F238BEB4F867}" name="Tableau8" displayName="Tableau8" ref="A14:H22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A14:H22" xr:uid="{AF68EC9D-AC20-4801-AD3A-F238BEB4F867}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{063890B2-01CC-4F78-80F5-05FC70DB958D}" name="Modèle" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{26591393-8F63-44E1-A1EE-DC4EA93B478B}" name="Bias" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{CC505BE6-623A-42A5-9918-DBEA89C0D6DE}" name="MAE" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{D6FBFDE7-927F-476F-84D7-7848BE5E68B8}" name="MSE" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{55F7B08A-E2EB-4645-959F-B97149DF73EB}" name="R²" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{063890B2-01CC-4F78-80F5-05FC70DB958D}" name="Modèle" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{26591393-8F63-44E1-A1EE-DC4EA93B478B}" name="Bias" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CC505BE6-623A-42A5-9918-DBEA89C0D6DE}" name="MAE" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D6FBFDE7-927F-476F-84D7-7848BE5E68B8}" name="MSE" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{931AC828-23C0-4E7C-87C1-AA4AD19B6E23}" name="RMSE"/>
-    <tableColumn id="7" xr3:uid="{BF1B6108-05ED-4B83-B608-7168EB713A98}" name="Variance" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{95BC74DE-12CC-4671-8486-49E54298813C}" name="Résumé" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{55F7B08A-E2EB-4645-959F-B97149DF73EB}" name="R²" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{BF1B6108-05ED-4B83-B608-7168EB713A98}" name="Variance" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{95BC74DE-12CC-4671-8486-49E54298813C}" name="Résumé" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2431,12 +2199,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{582E53EF-46B6-4DB8-B6C4-41E1E71F76BC}" name="Tableau14" displayName="Tableau14" ref="J14:Q22" totalsRowShown="0">
   <autoFilter ref="J14:Q22" xr:uid="{582E53EF-46B6-4DB8-B6C4-41E1E71F76BC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EE4B3E19-B9F0-4038-B5B5-5FDC5B6D6875}" name="Modèle" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{102028F3-D3EB-40E7-B134-567E7FAD0CEC}" name="Bias" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{EE4B3E19-B9F0-4038-B5B5-5FDC5B6D6875}" name="Modèle" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{102028F3-D3EB-40E7-B134-567E7FAD0CEC}" name="Bias" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{7465B403-DA39-41ED-95B5-9428208F5622}" name="MAE"/>
     <tableColumn id="4" xr3:uid="{06C14C59-A8A7-4EAA-829E-44BAC4866061}" name="MSE"/>
+    <tableColumn id="6" xr3:uid="{794B62F7-F595-4034-8891-D4B5C284FCCD}" name="RMSE"/>
     <tableColumn id="5" xr3:uid="{2D4F5066-4E13-4594-B388-7D5FF5E94678}" name="R²"/>
-    <tableColumn id="6" xr3:uid="{794B62F7-F595-4034-8891-D4B5C284FCCD}" name="RMSE"/>
     <tableColumn id="7" xr3:uid="{695D5E80-26F4-4FC3-813D-F3FAA0C06CDE}" name="Variance"/>
     <tableColumn id="8" xr3:uid="{C3A6783B-CF26-4EC2-8671-92C730A5F12E}" name="Résumé"/>
   </tableColumns>
@@ -2445,17 +2213,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4A69FF92-5391-4DA9-87CE-577B3C32BA4E}" name="Tableau11" displayName="Tableau11" ref="A3:H11" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4A69FF92-5391-4DA9-87CE-577B3C32BA4E}" name="Tableau11" displayName="Tableau11" ref="A3:H11" totalsRowShown="0">
   <autoFilter ref="A3:H11" xr:uid="{4A69FF92-5391-4DA9-87CE-577B3C32BA4E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{12C7BCBC-A517-4B67-BD88-E3C2109008AD}" name="Modèle" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{3B4E2AF1-880C-425F-B496-EE07405C394B}" name="Bias" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{95D665F3-4F1E-403D-B6D5-1067840F310C}" name="MAE" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{972C3BCA-1B4F-4CF1-900B-CADB04C1C3F2}" name="MSE" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{B3C73F56-6DCC-488B-8A37-78EE0EBECBD9}" name="RMSE" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{0ED48394-ECC0-4572-B9A9-B3006DAF31B9}" name="R²" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{BD0FC509-6DE1-4AF4-93DE-EC0821DE5612}" name="Variance" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{F456EA97-0530-4084-92BD-9FFEACEDFEB3}" name="Résumé" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{12C7BCBC-A517-4B67-BD88-E3C2109008AD}" name="Modèle"/>
+    <tableColumn id="2" xr3:uid="{3B4E2AF1-880C-425F-B496-EE07405C394B}" name="Biais"/>
+    <tableColumn id="3" xr3:uid="{95D665F3-4F1E-403D-B6D5-1067840F310C}" name="MAE"/>
+    <tableColumn id="4" xr3:uid="{972C3BCA-1B4F-4CF1-900B-CADB04C1C3F2}" name="MSE"/>
+    <tableColumn id="5" xr3:uid="{B3C73F56-6DCC-488B-8A37-78EE0EBECBD9}" name="RMSE"/>
+    <tableColumn id="6" xr3:uid="{0ED48394-ECC0-4572-B9A9-B3006DAF31B9}" name="R²"/>
+    <tableColumn id="7" xr3:uid="{BD0FC509-6DE1-4AF4-93DE-EC0821DE5612}" name="Variance"/>
+    <tableColumn id="8" xr3:uid="{F456EA97-0530-4084-92BD-9FFEACEDFEB3}" name="Résumé"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2749,7 +2517,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H11"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2764,7 +2532,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -2822,22 +2590,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>8</v>
@@ -2846,72 +2614,72 @@
         <v>14</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>64</v>
+        <v>464</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>148</v>
+        <v>438</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>7</v>
@@ -2919,49 +2687,49 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>115</v>
+        <v>467</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>154</v>
+        <v>471</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>8</v>
@@ -2969,49 +2737,49 @@
     </row>
     <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>429</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>120</v>
+        <v>468</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>8</v>
@@ -3019,49 +2787,49 @@
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>429</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>125</v>
+        <v>469</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>166</v>
+        <v>456</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>8</v>
@@ -3069,49 +2837,49 @@
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>130</v>
+        <v>470</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>168</v>
+        <v>430</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>172</v>
+        <v>429</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>7</v>
@@ -3119,49 +2887,49 @@
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>8</v>
@@ -3169,49 +2937,49 @@
     </row>
     <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>429</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>125</v>
+        <v>469</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>166</v>
+        <v>456</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>8</v>
@@ -3233,8 +3001,8 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3270,7 +3038,7 @@
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3354,30 +3122,30 @@
         <v>14</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>53</v>
+        <v>429</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>20</v>
@@ -3392,35 +3160,35 @@
         <v>23</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>60</v>
+        <v>436</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>64</v>
+        <v>464</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>7</v>
@@ -3428,50 +3196,50 @@
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>70</v>
+        <v>407</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>7</v>
@@ -3479,50 +3247,50 @@
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>434</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>8</v>
@@ -3530,50 +3298,50 @@
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>434</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>8</v>
@@ -3581,49 +3349,49 @@
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>435</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>463</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>87</v>
+        <v>465</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>7</v>
@@ -3631,50 +3399,50 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>93</v>
+        <v>466</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>7</v>
@@ -3682,49 +3450,49 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>434</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>8</v>
@@ -3732,7 +3500,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -3748,11 +3516,11 @@
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
@@ -3773,10 +3541,10 @@
         <v>12</v>
       </c>
       <c r="N14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
         <v>5</v>
-      </c>
-      <c r="O14" t="s">
-        <v>4</v>
       </c>
       <c r="P14" t="s">
         <v>11</v>
@@ -3787,99 +3555,99 @@
     </row>
     <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F15" t="s">
-        <v>246</v>
+        <v>323</v>
+      </c>
+      <c r="E15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="L15" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="M15" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="N15" t="s">
+        <v>351</v>
+      </c>
+      <c r="O15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" t="s">
-        <v>404</v>
-      </c>
       <c r="P15" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="Q15" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F16" t="s">
-        <v>378</v>
+        <v>327</v>
+      </c>
+      <c r="E16" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="L16" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="M16" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="N16" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="O16" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="P16" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="Q16" t="s">
         <v>7</v>
@@ -3887,49 +3655,49 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F17" t="s">
-        <v>384</v>
+        <v>332</v>
+      </c>
+      <c r="E17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="M17" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="N17" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="O17" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="P17" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="Q17" t="s">
         <v>7</v>
@@ -3937,49 +3705,49 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F18" t="s">
-        <v>223</v>
+        <v>336</v>
+      </c>
+      <c r="E18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="L18" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="M18" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="N18" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="O18" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="P18" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="Q18" t="s">
         <v>8</v>
@@ -3987,49 +3755,49 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F19" t="s">
-        <v>223</v>
+        <v>336</v>
+      </c>
+      <c r="E19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="L19" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="M19" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="N19" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="O19" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="P19" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="Q19" t="s">
         <v>8</v>
@@ -4037,49 +3805,49 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F20" t="s">
-        <v>394</v>
+        <v>339</v>
+      </c>
+      <c r="E20" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="L20" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="M20" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="N20" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="O20" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="P20" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="Q20" t="s">
         <v>8</v>
@@ -4087,49 +3855,49 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F21" t="s">
-        <v>400</v>
+        <v>345</v>
+      </c>
+      <c r="E21" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="L21" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="M21" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="N21" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="O21" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="P21" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="Q21" t="s">
         <v>8</v>
@@ -4137,49 +3905,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F22" t="s">
-        <v>223</v>
+        <v>336</v>
+      </c>
+      <c r="E22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="L22" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="M22" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="N22" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="O22" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="P22" t="s">
-        <v>417</v>
+        <v>361</v>
       </c>
       <c r="Q22" t="s">
         <v>8</v>
@@ -4187,7 +3955,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -4203,11 +3971,11 @@
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>11</v>
@@ -4228,10 +3996,10 @@
         <v>12</v>
       </c>
       <c r="N25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
         <v>5</v>
-      </c>
-      <c r="O25" t="s">
-        <v>4</v>
       </c>
       <c r="P25" t="s">
         <v>11</v>
@@ -4242,149 +4010,149 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F26" t="s">
-        <v>305</v>
+        <v>261</v>
+      </c>
+      <c r="E26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="L26" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="M26" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="N26" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="O26" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="P26" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="Q26" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>307</v>
+        <v>439</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F27" t="s">
-        <v>311</v>
+        <v>266</v>
+      </c>
+      <c r="E27" t="s">
+        <v>268</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>342</v>
+        <v>440</v>
       </c>
       <c r="L27" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="M27" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="N27" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="O27" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="P27" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="Q27" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F28" t="s">
-        <v>317</v>
+        <v>271</v>
+      </c>
+      <c r="E28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="L28" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="M28" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="N28" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="O28" t="s">
-        <v>353</v>
+        <v>457</v>
       </c>
       <c r="P28" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="Q28" t="s">
         <v>7</v>
@@ -4392,49 +4160,49 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F29" t="s">
-        <v>323</v>
+        <v>276</v>
+      </c>
+      <c r="E29" t="s">
+        <v>278</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="N29" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="O29" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="P29" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="Q29" t="s">
         <v>8</v>
@@ -4442,49 +4210,49 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F30" t="s">
-        <v>323</v>
+        <v>276</v>
+      </c>
+      <c r="E30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="O30" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="P30" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="Q30" t="s">
         <v>8</v>
@@ -4492,149 +4260,149 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F31" t="s">
-        <v>328</v>
+        <v>281</v>
+      </c>
+      <c r="E31" t="s">
+        <v>283</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>358</v>
+        <v>441</v>
       </c>
       <c r="L31" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="M31" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="N31" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="O31" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="P31" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="Q31" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F32" t="s">
-        <v>335</v>
+        <v>288</v>
+      </c>
+      <c r="E32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="O32" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="P32" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="Q32" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F33" t="s">
-        <v>323</v>
+        <v>276</v>
+      </c>
+      <c r="E33" t="s">
+        <v>278</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
-        <v>354</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="O33" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="P33" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="Q33" t="s">
         <v>8</v>
@@ -4658,7 +4426,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4673,7 +4441,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -4681,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -4705,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>3</v>
@@ -4728,49 +4496,49 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>8</v>
@@ -4778,49 +4546,49 @@
     </row>
     <row r="5" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>185</v>
+        <v>482</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>186</v>
+        <v>472</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>187</v>
+        <v>473</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>188</v>
+        <v>474</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>189</v>
+        <v>475</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>221</v>
+        <v>477</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>222</v>
+        <v>478</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>223</v>
+        <v>479</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>224</v>
+        <v>480</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>225</v>
+        <v>485</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>226</v>
+        <v>481</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>6</v>
@@ -4828,199 +4596,199 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="O6" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="Q6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="P7" s="4" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="O8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="Q8" s="4" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="P9" s="4" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>8</v>
@@ -5028,49 +4796,49 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="P10" s="4" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>8</v>
@@ -5078,57 +4846,57 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>483</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="N11" s="4" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -5183,49 +4951,49 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>441</v>
+        <v>380</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>270</v>
+        <v>382</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>472</v>
+        <v>141</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>473</v>
+        <v>196</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>274</v>
+        <v>400</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>238</v>
+        <v>401</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>474</v>
+        <v>402</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>274</v>
+        <v>400</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>8</v>
@@ -5233,49 +5001,49 @@
     </row>
     <row r="16" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>447</v>
+        <v>223</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>448</v>
+        <v>387</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>449</v>
+        <v>388</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>475</v>
+        <v>403</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>476</v>
+        <v>404</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>477</v>
+        <v>405</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>7</v>
@@ -5283,49 +5051,49 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>453</v>
+        <v>392</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>481</v>
+        <v>407</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>482</v>
+        <v>408</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>280</v>
+        <v>409</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>8</v>
@@ -5333,149 +5101,149 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>454</v>
+        <v>135</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>455</v>
+        <v>380</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>456</v>
+        <v>376</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>456</v>
+        <v>376</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>486</v>
+        <v>412</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>183</v>
+        <v>393</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>72</v>
+        <v>429</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>490</v>
+        <v>412</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>491</v>
+        <v>413</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>492</v>
+        <v>414</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>493</v>
+        <v>416</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>494</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>462</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>463</v>
+        <v>176</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>464</v>
+        <v>395</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>465</v>
+        <v>396</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>466</v>
+        <v>161</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>467</v>
+        <v>395</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>495</v>
+        <v>417</v>
       </c>
       <c r="L20" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>497</v>
-      </c>
       <c r="P20" s="4" t="s">
-        <v>281</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="4" t="s">
         <v>8</v>
@@ -5483,49 +5251,49 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>468</v>
+        <v>397</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>469</v>
+        <v>398</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>470</v>
+        <v>393</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>471</v>
+        <v>399</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>469</v>
+        <v>398</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>498</v>
+        <v>423</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>499</v>
+        <v>424</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>235</v>
+        <v>426</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>8</v>
@@ -5533,57 +5301,57 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>459</v>
+        <v>135</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>183</v>
+        <v>393</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>34</v>
+        <v>443</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>490</v>
+        <v>412</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>501</v>
+        <v>428</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>492</v>
+        <v>414</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>493</v>
+        <v>415</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>501</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -5591,7 +5359,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>3</v>
@@ -5615,7 +5383,7 @@
         <v>2</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>3</v>
@@ -5638,402 +5406,402 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>432</v>
+        <v>180</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q27" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>262</v>
+        <v>447</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>287</v>
+        <v>447</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>262</v>
+        <v>447</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>287</v>
+        <v>447</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>267</v>
+        <v>451</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>262</v>
+        <v>447</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>287</v>
+        <v>447</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
